--- a/output/0/tRNA-Asp-GTC-2-10.xlsx
+++ b/output/0/tRNA-Asp-GTC-2-10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="99">
   <si>
     <t>chr12</t>
   </si>
@@ -309,81 +309,6 @@
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>125424506</t>
-  </si>
-  <si>
-    <t>125424529</t>
-  </si>
-  <si>
-    <t>125424526</t>
-  </si>
-  <si>
-    <t>GGGTAGGGGATGTAGCTCAG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>99% (72)</t>
-  </si>
-  <si>
-    <t>95% (77)</t>
-  </si>
-  <si>
-    <t>125424552</t>
-  </si>
-  <si>
-    <t>125424575</t>
-  </si>
-  <si>
-    <t>125424572</t>
-  </si>
-  <si>
-    <t>GAGGCCCCGGGTTCAATCCC</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>125424557</t>
-  </si>
-  <si>
-    <t>125424580</t>
-  </si>
-  <si>
-    <t>125424560</t>
-  </si>
-  <si>
-    <t>AGATGCCGGGGATTGAACCC</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>125424558</t>
-  </si>
-  <si>
-    <t>125424581</t>
-  </si>
-  <si>
-    <t>125424561</t>
-  </si>
-  <si>
-    <t>GAGATGCCGGGGATTGAACC</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -428,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1265,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1292,25 +1217,25 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="R15" t="s">
         <v>15</v>
@@ -1324,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1336,10 +1261,10 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1351,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -1360,16 +1285,16 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
         <v>15</v>
@@ -1383,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1395,10 +1320,10 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1410,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
@@ -1422,13 +1347,13 @@
         <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
         <v>15</v>
@@ -1442,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1454,10 +1379,10 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -1469,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1478,16 +1403,16 @@
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
         <v>15</v>
@@ -1501,22 +1426,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -1528,25 +1453,25 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -1560,22 +1485,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -1587,22 +1512,22 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
         <v>25</v>
@@ -1619,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1631,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -1646,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
         <v>9</v>
@@ -1655,16 +1580,16 @@
         <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R21" t="s">
         <v>15</v>
@@ -1678,22 +1603,22 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -1705,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1714,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R22" t="s">
         <v>15</v>
@@ -1737,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -1764,25 +1689,25 @@
         <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="R23" t="s">
         <v>15</v>
@@ -1796,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1823,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
@@ -1832,16 +1757,16 @@
         <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
         <v>15</v>
@@ -1855,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -1882,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
         <v>9</v>
@@ -1891,16 +1816,16 @@
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
         <v>15</v>
@@ -1914,22 +1839,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
@@ -1941,25 +1866,25 @@
         <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M26" t="s">
         <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
         <v>15</v>
@@ -1973,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -1985,10 +1910,10 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
@@ -2000,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -2009,16 +1934,16 @@
         <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s">
         <v>15</v>
@@ -2032,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -2044,10 +1969,10 @@
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
         <v>6</v>
@@ -2059,502 +1984,30 @@
         <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
         <v>15</v>
       </c>
       <c r="S28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s">
-        <v>15</v>
-      </c>
-      <c r="S30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" t="s">
-        <v>50</v>
-      </c>
-      <c r="O31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P31" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s">
-        <v>96</v>
-      </c>
-      <c r="O32" t="s">
-        <v>97</v>
-      </c>
-      <c r="P32" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" t="s">
-        <v>102</v>
-      </c>
-      <c r="L33" t="s">
-        <v>103</v>
-      </c>
-      <c r="M33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>69</v>
-      </c>
-      <c r="R33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" t="s">
-        <v>72</v>
-      </c>
-      <c r="O34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>46</v>
-      </c>
-      <c r="R34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>114</v>
-      </c>
-      <c r="L35" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" t="s">
-        <v>115</v>
-      </c>
-      <c r="P35" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>117</v>
-      </c>
-      <c r="R35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" t="s">
-        <v>43</v>
-      </c>
-      <c r="O36" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>69</v>
-      </c>
-      <c r="R36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S36" t="s">
         <v>3</v>
       </c>
     </row>
